--- a/吉林省/吉林省.xlsx
+++ b/吉林省/吉林省.xlsx
@@ -54,91 +54,92 @@
     <t>通化市</t>
   </si>
   <si>
+    <t>白山市</t>
+  </si>
+  <si>
+    <t>http://www.bsggzyjy.gov.cn/</t>
+  </si>
+  <si>
+    <t>松原市</t>
+  </si>
+  <si>
+    <t>http://syggzy.jlsy.gov.cn/</t>
+  </si>
+  <si>
+    <t>白城市</t>
+  </si>
+  <si>
+    <t>http://www.bcggzy.gov.cn/</t>
+  </si>
+  <si>
+    <t>县级市</t>
+  </si>
+  <si>
+    <t>榆树市</t>
+  </si>
+  <si>
+    <t>德惠市</t>
+  </si>
+  <si>
+    <t>蛟河市</t>
+  </si>
+  <si>
+    <t>桦甸市</t>
+  </si>
+  <si>
+    <t>舒兰市</t>
+  </si>
+  <si>
+    <t>磐石市</t>
+  </si>
+  <si>
+    <t>公主岭市</t>
+  </si>
+  <si>
+    <t>双辽市</t>
+  </si>
+  <si>
+    <t>梅河口市</t>
+  </si>
+  <si>
+    <t>集安市</t>
+  </si>
+  <si>
+    <t>洮南市</t>
+  </si>
+  <si>
+    <t>大安市</t>
+  </si>
+  <si>
+    <t>临江市</t>
+  </si>
+  <si>
+    <t>延吉市</t>
+  </si>
+  <si>
+    <t>图们市</t>
+  </si>
+  <si>
+    <t>敦化市</t>
+  </si>
+  <si>
+    <t>珲春市</t>
+  </si>
+  <si>
+    <t>龙井市</t>
+  </si>
+  <si>
+    <t>和龙市</t>
+  </si>
+  <si>
+    <t>扶余市</t>
+  </si>
+  <si>
+    <t>http://ggzy.siping.gov.cn/</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>http://thsggzyjy.tonghua.gov.cn/</t>
-  </si>
-  <si>
-    <t>白山市</t>
-  </si>
-  <si>
-    <t>http://www.bsggzyjy.gov.cn/</t>
-  </si>
-  <si>
-    <t>松原市</t>
-  </si>
-  <si>
-    <t>http://syggzy.jlsy.gov.cn/</t>
-  </si>
-  <si>
-    <t>白城市</t>
-  </si>
-  <si>
-    <t>http://www.bcggzy.gov.cn/</t>
-  </si>
-  <si>
-    <t>县级市</t>
-  </si>
-  <si>
-    <t>榆树市</t>
-  </si>
-  <si>
-    <t>德惠市</t>
-  </si>
-  <si>
-    <t>蛟河市</t>
-  </si>
-  <si>
-    <t>桦甸市</t>
-  </si>
-  <si>
-    <t>舒兰市</t>
-  </si>
-  <si>
-    <t>磐石市</t>
-  </si>
-  <si>
-    <t>公主岭市</t>
-  </si>
-  <si>
-    <t>双辽市</t>
-  </si>
-  <si>
-    <t>梅河口市</t>
-  </si>
-  <si>
-    <t>集安市</t>
-  </si>
-  <si>
-    <t>洮南市</t>
-  </si>
-  <si>
-    <t>大安市</t>
-  </si>
-  <si>
-    <t>临江市</t>
-  </si>
-  <si>
-    <t>延吉市</t>
-  </si>
-  <si>
-    <t>图们市</t>
-  </si>
-  <si>
-    <t>敦化市</t>
-  </si>
-  <si>
-    <t>珲春市</t>
-  </si>
-  <si>
-    <t>龙井市</t>
-  </si>
-  <si>
-    <t>和龙市</t>
-  </si>
-  <si>
-    <t>扶余市</t>
-  </si>
-  <si>
-    <t>http://ggzy.siping.gov.cn/</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -577,7 +578,7 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -628,7 +629,7 @@
         <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -651,7 +652,7 @@
         <v>11</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -661,39 +662,39 @@
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4"/>
       <c r="B9" s="5"/>
       <c r="C9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
       <c r="B10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="D10" s="1"/>
     </row>
@@ -701,7 +702,7 @@
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D11" s="1"/>
     </row>
@@ -709,7 +710,7 @@
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D12" s="1"/>
     </row>
@@ -717,7 +718,7 @@
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D13" s="1"/>
     </row>
@@ -725,7 +726,7 @@
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D14" s="1"/>
     </row>
@@ -733,7 +734,7 @@
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D15" s="1"/>
     </row>
@@ -741,7 +742,7 @@
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D16" s="1"/>
     </row>
@@ -749,7 +750,7 @@
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" s="1"/>
     </row>
@@ -757,7 +758,7 @@
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D18" s="1"/>
     </row>
@@ -765,7 +766,7 @@
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D19" s="1"/>
     </row>
@@ -773,7 +774,7 @@
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D20" s="1"/>
     </row>
@@ -781,7 +782,7 @@
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D21" s="1"/>
     </row>
@@ -789,7 +790,7 @@
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D22" s="1"/>
     </row>
@@ -797,7 +798,7 @@
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D23" s="1"/>
     </row>
@@ -805,7 +806,7 @@
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D24" s="1"/>
     </row>
@@ -813,7 +814,7 @@
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D25" s="1"/>
     </row>
@@ -821,7 +822,7 @@
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D26" s="1"/>
     </row>
@@ -829,7 +830,7 @@
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D27" s="1"/>
     </row>
@@ -837,7 +838,7 @@
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D28" s="1"/>
     </row>
@@ -845,7 +846,7 @@
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D29" s="1"/>
     </row>
